--- a/chp4.xlsx
+++ b/chp4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\VESP\AIML\Project's\ESY-SEM-REPLICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A874F5-B31D-4327-BF6D-DDE7545BBD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612583FF-85D5-43BB-9CD0-53DBD777028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2037,13 +2037,18 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="7" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2838,7 +2843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>194</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="140.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>217</v>
       </c>
@@ -3079,7 +3084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="156" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>241</v>
       </c>
@@ -3121,7 +3126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>251</v>
       </c>
@@ -3165,7 +3170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>262</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>267</v>
       </c>
@@ -3394,7 +3399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>283</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>356</v>
       </c>
@@ -3814,7 +3819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>366</v>
       </c>
@@ -4045,7 +4050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>414</v>
       </c>
@@ -4570,7 +4575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>493</v>
       </c>
@@ -4780,7 +4785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>537</v>
       </c>
@@ -4991,6 +4996,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>